--- a/data/final_table.xlsx
+++ b/data/final_table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="305">
   <si>
     <t>N</t>
   </si>
@@ -295,7 +295,7 @@
     <t>Arts. 44–45</t>
   </si>
   <si>
-    <t>Participate in national DRS for beverage containers where applicable; register packaging and pay deposits to the system operator before placing products on the market; mandatory in NL and other Member States, EU-wide by 2030.</t>
+    <t>Participate in national DRS for beverage containers where applicable; register packaging and pay deposits to the system operator before placing products on the market; mandatory in NL. EU-wide in 2030.</t>
   </si>
   <si>
     <t>Beverage containers in DRS scope</t>
@@ -400,7 +400,7 @@
     <t>Annual Packaging Declaration</t>
   </si>
   <si>
-    <t>Beleid 2025; Tarieven 2025</t>
+    <t>Beleid 2025; Tariefdiff. 2.0</t>
   </si>
   <si>
     <t>Declare prior-year packaging volumes (by material, format, and SUP category) in PackTool by 1 April, including granular design data required for modulated EPR fees (e.g., recyclability, recycled content, reuse).</t>
@@ -421,7 +421,7 @@
     <t>Administration &amp; Retention (7 Years)</t>
   </si>
   <si>
-    <t>Beleid 2025 (admin.)</t>
+    <t>Verpakkingenadministratie</t>
   </si>
   <si>
     <t>Maintain verifiable packaging records for 7 years for all declared volumes and fee categories.</t>
@@ -439,7 +439,7 @@
     <t>Fee Payment (Tariffs)</t>
   </si>
   <si>
-    <t>Tarieven 2025</t>
+    <t>Tariefdiff. 2.0</t>
   </si>
   <si>
     <t>Pay Afvalfonds fees per 2025 material-specific tariffs; payment finalizes annual declaration.</t>
@@ -454,9 +454,6 @@
     <t>Recyclability-based Fee Modulation (Plastic 2.0)</t>
   </si>
   <si>
-    <t>Tariefdiff. 2.0</t>
-  </si>
-  <si>
     <t>Plastic fees modulated by recyclability and recycled content under Verpact’s Plastic 2.0; designs verified via KIDV Recyclecheck can receive up to €0.20/kg discount.</t>
   </si>
   <si>
@@ -499,7 +496,7 @@
     <t>Business Packers (B2B Flows)</t>
   </si>
   <si>
-    <t>Beleid 2025 (B2B)</t>
+    <t>Beleid 2025</t>
   </si>
   <si>
     <t>B2B and industrial packaging (e.g. pallet wrap, outer boxes, transport packs) must be reported under Dutch EPR when first placed on the NL market.</t>
@@ -625,19 +622,17 @@
     <t>NIAS Risk Assessment</t>
   </si>
   <si>
-    <t>FCM (1935/2004) + Plastics (10/2011)</t>
-  </si>
-  <si>
-    <t>Art. 3; 10/2011 (NIAS)</t>
-  </si>
-  <si>
-    <t>Identify and assess non-intentionally added substances (NIAS) in packaging materials to confirm safety and compliance with FCM and plastics rules.</t>
+    <t>Art. 6 &amp; 19</t>
+  </si>
+  <si>
+    <t>Identify and assess non-intentionally added substances (NIAS) in plastic food-contact materials to confirm safety and compliance.</t>
   </si>
   <si>
     <t>All food-contact materials; explicit for plastics.</t>
   </si>
   <si>
-    <t>NIAS risk assessment; recycler authorisation; compliance DoC</t>
+    <t xml:space="preserve">NIAS risk assessment; supporting tests; compliance DoC.
+</t>
   </si>
   <si>
     <t>EUR-Lex Reg (EU) 2022/1616</t>
@@ -658,7 +653,7 @@
     <t>Plastic food-contact packaging using recycled content.</t>
   </si>
   <si>
-    <t>EFSA authorisation; supplier declaration; challenge test; monitoring plan.</t>
+    <t>EU authorisation record; supplier declaration; challenge test; monitoring plan.</t>
   </si>
   <si>
     <t>EUR-Lex 2022/1616</t>
@@ -709,7 +704,7 @@
     <t>PFAS Restriction (Pending under REACH)</t>
   </si>
   <si>
-    <t>ECHA PFAS Restriction Proposal (2023)</t>
+    <t>Art. 68(1)</t>
   </si>
   <si>
     <t>Proposal to restrict PFAS in non-essential uses, including barrier coatings for paper/board food packaging; would prohibit placing PFAS-containing packaging on the EU market after transition.</t>
@@ -730,7 +725,7 @@
     <t>ESRS (2023/2772)</t>
   </si>
   <si>
-    <t>ESRS 2; Dir. 2022/2464</t>
+    <t>ESRS 2; Dir. 2024/2464</t>
   </si>
   <si>
     <t>Set up clear governance, roles, and controls for CSRD reporting, and perform a double-materiality assessment to decide which topics (e.g. circularity or packaging) are relevant.</t>
@@ -964,12 +959,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -990,39 +991,45 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,22 +1322,23 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.5"/>
-    <col customWidth="1" min="2" max="2" width="17.63"/>
-    <col customWidth="1" min="3" max="3" width="9.25"/>
-    <col customWidth="1" min="4" max="4" width="11.5"/>
-    <col customWidth="1" min="5" max="5" width="46.5"/>
-    <col customWidth="1" min="6" max="6" width="13.38"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="10.63"/>
-    <col customWidth="1" min="9" max="9" width="22.38"/>
-    <col customWidth="1" min="10" max="10" width="15.5"/>
-    <col customWidth="1" min="11" max="11" width="12.13"/>
-    <col customWidth="1" min="12" max="12" width="12.38"/>
-    <col customWidth="1" min="13" max="13" width="27.63"/>
+    <col customWidth="1" min="1" max="1" width="2.88"/>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
+    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="4" max="4" width="11.38"/>
+    <col customWidth="1" min="5" max="5" width="54.25"/>
+    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col customWidth="1" min="7" max="7" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="10.0"/>
+    <col customWidth="1" min="9" max="9" width="19.75"/>
+    <col customWidth="1" min="10" max="10" width="14.25"/>
+    <col customWidth="1" min="11" max="11" width="9.75"/>
+    <col customWidth="1" min="12" max="12" width="11.13"/>
+    <col customWidth="1" min="13" max="13" width="23.63"/>
+    <col hidden="1" min="14" max="14" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="24.0" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" ht="36.0" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" ht="36.0" customHeight="1">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" ht="36.0" customHeight="1">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" ht="36.0" customHeight="1">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
@@ -1638,7 +1646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" ht="36.0" customHeight="1">
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" ht="36.0" customHeight="1">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="36.0" customHeight="1">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" ht="36.0" customHeight="1">
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" ht="36.0" customHeight="1">
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" ht="36.0" customHeight="1">
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
@@ -1871,7 +1879,7 @@
       <c r="D13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1902,7 +1910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" ht="36.0" customHeight="1">
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" ht="36.0" customHeight="1">
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="36.0" customHeight="1">
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" ht="36.0" customHeight="1">
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" ht="36.0" customHeight="1">
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
@@ -2097,7 +2105,7 @@
       <c r="F18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2122,7 +2130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="36.0" customHeight="1">
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
@@ -2132,7 +2140,7 @@
       <c r="C19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2141,7 +2149,7 @@
       <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -2166,7 +2174,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" ht="36.0" customHeight="1">
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
@@ -2176,7 +2184,7 @@
       <c r="C20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2185,7 +2193,7 @@
       <c r="F20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -2210,7 +2218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="36.0" customHeight="1">
       <c r="A21" s="3">
         <v>20.0</v>
       </c>
@@ -2229,7 +2237,7 @@
       <c r="F21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2254,7 +2262,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="36.0" customHeight="1">
       <c r="A22" s="3">
         <v>21.0</v>
       </c>
@@ -2265,10 +2273,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>30</v>
@@ -2280,54 +2288,54 @@
         <v>20</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" ht="36.0" customHeight="1">
       <c r="A23" s="3">
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>23</v>
@@ -2336,42 +2344,42 @@
         <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" ht="36.0" customHeight="1">
       <c r="A24" s="3">
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>23</v>
@@ -2380,42 +2388,42 @@
         <v>24</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" ht="36.0" customHeight="1">
       <c r="A25" s="3">
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>23</v>
@@ -2424,27 +2432,27 @@
         <v>24</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" ht="36.0" customHeight="1">
       <c r="A26" s="3">
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>30</v>
@@ -2456,7 +2464,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>22</v>
@@ -2468,39 +2476,39 @@
         <v>24</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" ht="36.0" customHeight="1">
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>22</v>
@@ -2512,27 +2520,27 @@
         <v>24</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" ht="36.0" customHeight="1">
       <c r="A28" s="3">
         <v>27.0</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>67</v>
@@ -2544,7 +2552,7 @@
         <v>54</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
@@ -2556,27 +2564,27 @@
         <v>24</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" ht="36.0" customHeight="1">
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>18</v>
@@ -2588,7 +2596,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>22</v>
@@ -2600,27 +2608,27 @@
         <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" ht="36.0" customHeight="1">
       <c r="A30" s="3">
         <v>29.0</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>67</v>
@@ -2632,7 +2640,7 @@
         <v>54</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
@@ -2644,27 +2652,27 @@
         <v>24</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" ht="36.0" customHeight="1">
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>30</v>
@@ -2676,7 +2684,7 @@
         <v>54</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>22</v>
@@ -2688,27 +2696,27 @@
         <v>24</v>
       </c>
       <c r="M31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" ht="36.0" customHeight="1">
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
@@ -2720,7 +2728,7 @@
         <v>54</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>22</v>
@@ -2731,28 +2739,28 @@
       <c r="L32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>206</v>
+      <c r="M32" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" ht="36.0" customHeight="1">
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>43</v>
@@ -2764,7 +2772,7 @@
         <v>54</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>22</v>
@@ -2775,28 +2783,28 @@
       <c r="L33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>213</v>
+      <c r="M33" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" ht="36.0" customHeight="1">
       <c r="A34" s="3">
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>30</v>
@@ -2808,7 +2816,7 @@
         <v>54</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>22</v>
@@ -2820,34 +2828,34 @@
         <v>24</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>219</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+    </row>
+    <row r="35" ht="36.0" customHeight="1">
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>18</v>
@@ -2859,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>22</v>
@@ -2871,27 +2879,27 @@
         <v>24</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" ht="36.0" customHeight="1">
       <c r="A36" s="3">
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -2903,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>22</v>
@@ -2915,42 +2923,42 @@
         <v>33</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" ht="36.0" customHeight="1">
       <c r="A37" s="3">
         <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>23</v>
@@ -2959,42 +2967,42 @@
         <v>24</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" ht="36.0" customHeight="1">
       <c r="A38" s="3">
         <v>37.0</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>23</v>
@@ -3003,42 +3011,42 @@
         <v>24</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" ht="36.0" customHeight="1">
       <c r="A39" s="3">
         <v>38.0</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>108</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K39" s="6">
         <v>46023.0</v>
@@ -3047,27 +3055,27 @@
         <v>24</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" ht="36.0" customHeight="1">
       <c r="A40" s="3">
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>81</v>
@@ -3079,10 +3087,10 @@
         <v>20</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K40" s="6">
         <v>46292.0</v>
@@ -3091,27 +3099,27 @@
         <v>24</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" ht="36.0" customHeight="1">
       <c r="A41" s="3">
         <v>40.0</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>81</v>
@@ -3123,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K41" s="6">
         <v>46292.0</v>
@@ -3135,27 +3143,27 @@
         <v>24</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" ht="36.0" customHeight="1">
       <c r="A42" s="3">
         <v>41.0</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>81</v>
@@ -3167,10 +3175,10 @@
         <v>20</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K42" s="6">
         <v>46292.0</v>
@@ -3179,27 +3187,27 @@
         <v>24</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" ht="36.0" customHeight="1">
       <c r="A43" s="3">
         <v>42.0</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>81</v>
@@ -3211,10 +3219,10 @@
         <v>20</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K43" s="6">
         <v>46292.0</v>
@@ -3223,27 +3231,27 @@
         <v>24</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" ht="36.0" customHeight="1">
       <c r="A44" s="3">
         <v>43.0</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>81</v>
@@ -3255,39 +3263,39 @@
         <v>20</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" ht="36.0" customHeight="1">
       <c r="A45" s="3">
         <v>44.0</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>18</v>
@@ -3299,7 +3307,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -3311,27 +3319,27 @@
         <v>24</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" ht="36.0" customHeight="1">
       <c r="A46" s="3">
         <v>45.0</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>43</v>
@@ -3343,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
@@ -3355,27 +3363,27 @@
         <v>24</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" ht="36.0" customHeight="1">
       <c r="A47" s="3">
         <v>46.0</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>18</v>
@@ -3387,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>22</v>
@@ -3399,43 +3407,43 @@
         <v>24</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
@@ -4380,7 +4388,7 @@
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="5" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -4403,56 +4411,56 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
